--- a/output/StructureDefinition-TICTFServiceRequest.xlsx
+++ b/output/StructureDefinition-TICTFServiceRequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T10:56:01-03:00</t>
+    <t>2025-06-21T18:29:32-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -874,7 +874,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://racsel.org/TIC-TSTF/StructureDefinition/TICTFPatient)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-TICTFServiceRequest.xlsx
+++ b/output/StructureDefinition-TICTFServiceRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-21T18:29:32-03:00</t>
+    <t>2025-08-25T16:41:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -805,7 +805,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](http://hl7.org/fhir/R4/valueset-diagnostic-requests.html).</t>
+    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred].</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
@@ -1919,17 +1919,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="62.171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.78515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.83984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.7578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.88671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.27734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="65.5078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1938,27 +1938,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.8203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="70.54296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="162.58984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.92578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="63.265625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.87890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.03515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="82.15234375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="158.23046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="59.3671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="73.67578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="141.90625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="53.2421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-TICTFServiceRequest.xlsx
+++ b/output/StructureDefinition-TICTFServiceRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-21T18:29:32-03:00</t>
+    <t>2025-08-25T12:04:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -805,7 +805,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](http://hl7.org/fhir/R4/valueset-diagnostic-requests.html).</t>
+    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred].</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
@@ -1919,17 +1919,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="62.171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.78515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.83984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.8203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.0" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.65234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.1796875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.01953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1938,27 +1938,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.8203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="70.54296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.37109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.7421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.12890625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.40625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="166.18359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.34375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.2734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.1171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="65.0" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.3671875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.50390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.23828125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.03515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="82.15234375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="158.23046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="59.3671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="74.65625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="144.86328125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="30.9375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="56.5625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
